--- a/conditions_v2.xlsx
+++ b/conditions_v2.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omada\Downloads\two_choice-master\two_choice-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B49B2D-6786-4CCD-AFAA-6B94C6CB908E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A908AD-6724-494F-B527-CBC078CC9185}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="conditions_money" sheetId="1" r:id="rId1"/>
+    <sheet name="conditions" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">conditions!$A$1:$L$163</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="31">
   <si>
     <t>prob1</t>
   </si>
@@ -71,6 +74,48 @@
   </si>
   <si>
     <t>color_right</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>Fuchsia</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>DeepSkyBlue</t>
+  </si>
+  <si>
+    <t>rand1</t>
+  </si>
+  <si>
+    <t>rand2</t>
+  </si>
+  <si>
+    <t>aux1</t>
+  </si>
+  <si>
+    <t>aux2</t>
+  </si>
+  <si>
+    <t>aux4</t>
+  </si>
+  <si>
+    <t>aux3</t>
+  </si>
+  <si>
+    <t>aux_color</t>
   </si>
 </sst>
 </file>
@@ -213,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +438,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -554,8 +605,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,23 +967,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +1027,41 @@
       <c r="L1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.25</v>
       </c>
@@ -977,21 +1074,21 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f>+IF(C2=1,"$n_edges_low",IF(C2=2,"$n_edges_med",IF(C2=3,"$n_edges_high")))</f>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F2" t="str">
-        <f>+IF(D2=1,"$n_edges_low",IF(D2=2,"$n_edges_med",IF(D2=3,"$n_edges_high")))</f>
-        <v>$n_edges_low</v>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" ca="1" si="0">+VLOOKUP(C2,$M$2:$N$4,2,0)</f>
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F33" ca="1" si="1">+VLOOKUP(D2,$M$2:$N$4,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G2" t="str">
-        <f>+IF(C2=1,"Fuchsia",IF(C2=2,"gold",IF(C2=3,"DeepSkyBlue")))</f>
-        <v>gold</v>
+        <f t="shared" ref="G2:G33" ca="1" si="2">+VLOOKUP(A2,$S$2:$T$4,2,0)</f>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H2" t="str">
-        <f>+IF(D2=1,"Fuchsia",IF(D2=2,"gold",IF(D2=3,"DeepSkyBlue")))</f>
-        <v>Fuchsia</v>
+        <f t="shared" ref="H2:H33" ca="1" si="3">+VLOOKUP(B2,$S$2:$T$4,2,0)</f>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -1005,8 +1102,47 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <f ca="1">+VLOOKUP(M2,$P$2:$Q$4,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f ca="1">+RAND()</f>
+        <v>0.42291634973284808</v>
+      </c>
+      <c r="P2">
+        <f ca="1">+_xlfn.RANK.EQ(O2,$O$2:$O$4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <f ca="1">+VLOOKUP(R2,$V$2:$W$4,2,0)</f>
+        <v>DeepSkyBlue</v>
+      </c>
+      <c r="U2">
+        <f ca="1">+RAND()</f>
+        <v>0.28009771585013421</v>
+      </c>
+      <c r="V2">
+        <f ca="1">+_xlfn.RANK.EQ(U2,$U$2:$U$4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -1019,21 +1155,21 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">+IF(C3=1,"$n_edges_low",IF(C3=2,"$n_edges_med",IF(C3=3,"$n_edges_high")))</f>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="1">+IF(D3=1,"$n_edges_low",IF(D3=2,"$n_edges_med",IF(D3=3,"$n_edges_high")))</f>
-        <v>$n_edges_med</v>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="2">+IF(C3=1,"Fuchsia",IF(C3=2,"gold",IF(C3=3,"DeepSkyBlue")))</f>
-        <v>gold</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="3">+IF(D3=1,"Fuchsia",IF(D3=2,"gold",IF(D3=3,"DeepSkyBlue")))</f>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -1047,8 +1183,47 @@
       <c r="L3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <f ca="1">+VLOOKUP(M3,$P$2:$Q$4,2,0)</f>
+        <v>90</v>
+      </c>
+      <c r="O3">
+        <f ca="1">+RAND()</f>
+        <v>0.84351352245492517</v>
+      </c>
+      <c r="P3">
+        <f ca="1">+_xlfn.RANK.EQ(O3,$O$2:$O$4,1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f ca="1">+VLOOKUP(R3,$V$2:$W$4,2,0)</f>
+        <v>Fuchsia</v>
+      </c>
+      <c r="U3">
+        <f ca="1">+RAND()</f>
+        <v>0.66129123367488796</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V4" ca="1" si="4">+_xlfn.RANK.EQ(U3,$U$2:$U$4,1)</f>
+        <v>3</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -1061,21 +1236,21 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -1089,8 +1264,47 @@
       <c r="L4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <f ca="1">+VLOOKUP(M4,$P$2:$Q$4,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f ca="1">+RAND()</f>
+        <v>0.72982929276846853</v>
+      </c>
+      <c r="P4">
+        <f ca="1">+_xlfn.RANK.EQ(O4,$O$2:$O$4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>90</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f ca="1">+VLOOKUP(R4,$V$2:$W$4,2,0)</f>
+        <v>gold</v>
+      </c>
+      <c r="U4">
+        <f ca="1">+RAND()</f>
+        <v>0.22246323008312696</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -1103,21 +1317,21 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -1132,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.75</v>
       </c>
@@ -1145,21 +1359,21 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>gold</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -1174,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -1187,21 +1401,21 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>gold</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -1216,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.75</v>
       </c>
@@ -1229,21 +1443,21 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>gold</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -1258,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.25</v>
       </c>
@@ -1271,21 +1485,21 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
@@ -1300,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -1313,21 +1527,21 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -1342,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1355,21 +1569,21 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
@@ -1384,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.25</v>
       </c>
@@ -1397,21 +1611,21 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -1426,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.75</v>
       </c>
@@ -1439,21 +1653,21 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>gold</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1468,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -1481,21 +1695,21 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I14" t="s">
         <v>9</v>
@@ -1510,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.25</v>
       </c>
@@ -1523,21 +1737,21 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1552,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -1565,21 +1779,21 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I16" t="s">
         <v>9</v>
@@ -1607,21 +1821,21 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
@@ -1649,21 +1863,21 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Fuchsia</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I18" t="s">
         <v>9</v>
@@ -1691,21 +1905,21 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>gold</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I19" t="s">
         <v>9</v>
@@ -1733,21 +1947,21 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Fuchsia</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1775,21 +1989,21 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1817,21 +2031,21 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1859,21 +2073,21 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>gold</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
@@ -1901,20 +2115,20 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>gold</v>
       </c>
       <c r="I24" t="s">
@@ -1943,21 +2157,21 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1985,20 +2199,20 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I26" t="s">
@@ -2027,21 +2241,21 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I27" t="s">
         <v>9</v>
@@ -2069,21 +2283,21 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>gold</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I28" t="s">
         <v>9</v>
@@ -2111,21 +2325,21 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>gold</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -2153,21 +2367,21 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -2195,20 +2409,20 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>Fuchsia</v>
       </c>
       <c r="I31" t="s">
@@ -2237,20 +2451,20 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Fuchsia</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I32" t="s">
@@ -2279,21 +2493,21 @@
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>gold</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>gold</v>
       </c>
       <c r="I33" t="s">
         <v>9</v>
@@ -2321,21 +2535,21 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E34">
+        <f t="shared" ref="E34:E65" ca="1" si="5">+VLOOKUP(C34,$M$2:$N$4,2,0)</f>
+        <v>90</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F65" ca="1" si="6">+VLOOKUP(D34,$M$2:$N$4,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ref="G34:G65" ca="1" si="7">+VLOOKUP(A34,$S$2:$T$4,2,0)</f>
+        <v>Fuchsia</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ref="H34:H65" ca="1" si="8">+VLOOKUP(B34,$S$2:$T$4,2,0)</f>
+        <v>gold</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -2363,21 +2577,21 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E35">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -2405,21 +2619,21 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E36">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I36" t="s">
         <v>9</v>
@@ -2447,21 +2661,21 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E37">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -2489,20 +2703,20 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E38">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>Fuchsia</v>
       </c>
       <c r="I38" t="s">
@@ -2531,21 +2745,21 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E39">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I39" t="s">
         <v>9</v>
@@ -2573,21 +2787,21 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E40">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -2615,20 +2829,20 @@
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E41">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Fuchsia</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I41" t="s">
@@ -2657,20 +2871,20 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E42">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>gold</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>gold</v>
       </c>
       <c r="I42" t="s">
@@ -2699,21 +2913,21 @@
       <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E43">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I43" t="s">
         <v>9</v>
@@ -2741,20 +2955,20 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E44">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>gold</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>gold</v>
       </c>
       <c r="I44" t="s">
@@ -2783,20 +2997,20 @@
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E45">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I45" t="s">
@@ -2825,21 +3039,21 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E46">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I46" t="s">
         <v>11</v>
@@ -2867,20 +3081,20 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E47">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>Fuchsia</v>
       </c>
       <c r="I47" t="s">
@@ -2909,21 +3123,21 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E48">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>gold</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I48" t="s">
         <v>11</v>
@@ -2951,21 +3165,21 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E49">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I49" t="s">
         <v>9</v>
@@ -2993,21 +3207,21 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E50">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>gold</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I50" t="s">
         <v>11</v>
@@ -3035,20 +3249,20 @@
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E51">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>gold</v>
       </c>
       <c r="I51" t="s">
@@ -3077,21 +3291,21 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E52">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>gold</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I52" t="s">
         <v>11</v>
@@ -3119,20 +3333,20 @@
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E53">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Fuchsia</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>gold</v>
       </c>
       <c r="I53" t="s">
@@ -3161,21 +3375,21 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E54">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I54" t="s">
         <v>9</v>
@@ -3203,20 +3417,20 @@
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E55">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>gold</v>
       </c>
       <c r="I55" t="s">
@@ -3245,21 +3459,21 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E56">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="2"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>gold</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I56" t="s">
         <v>11</v>
@@ -3287,21 +3501,21 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E57">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Fuchsia</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I57" t="s">
         <v>9</v>
@@ -3329,21 +3543,21 @@
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E58">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Fuchsia</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I58" t="s">
         <v>11</v>
@@ -3371,21 +3585,21 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E59">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I59" t="s">
         <v>11</v>
@@ -3413,20 +3627,20 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E60">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>Fuchsia</v>
       </c>
       <c r="I60" t="s">
@@ -3455,21 +3669,21 @@
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_high</v>
+      <c r="E61">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="3"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I61" t="s">
         <v>11</v>
@@ -3497,21 +3711,21 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E62">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>gold</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I62" t="s">
         <v>11</v>
@@ -3539,21 +3753,21 @@
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E63">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Fuchsia</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="3"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I63" t="s">
         <v>11</v>
@@ -3581,21 +3795,21 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E64">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>gold</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>gold</v>
       </c>
       <c r="I64" t="s">
         <v>11</v>
@@ -3623,21 +3837,21 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_low</v>
+      <c r="E65">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>gold</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="3"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I65" t="s">
         <v>9</v>
@@ -3665,20 +3879,20 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="1"/>
-        <v>$n_edges_med</v>
+      <c r="E66">
+        <f t="shared" ref="E66:E97" ca="1" si="9">+VLOOKUP(C66,$M$2:$N$4,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F97" ca="1" si="10">+VLOOKUP(D66,$M$2:$N$4,2,0)</f>
+        <v>90</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="2"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ref="G66:G97" ca="1" si="11">+VLOOKUP(A66,$S$2:$T$4,2,0)</f>
+        <v>Fuchsia</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H66:H97" ca="1" si="12">+VLOOKUP(B66,$S$2:$T$4,2,0)</f>
         <v>gold</v>
       </c>
       <c r="I66" t="s">
@@ -3707,20 +3921,20 @@
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="4">+IF(C67=1,"$n_edges_low",IF(C67=2,"$n_edges_med",IF(C67=3,"$n_edges_high")))</f>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="5">+IF(D67=1,"$n_edges_low",IF(D67=2,"$n_edges_med",IF(D67=3,"$n_edges_high")))</f>
-        <v>$n_edges_high</v>
+      <c r="E67">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="6">+IF(C67=1,"Fuchsia",IF(C67=2,"gold",IF(C67=3,"DeepSkyBlue")))</f>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="7">+IF(D67=1,"Fuchsia",IF(D67=2,"gold",IF(D67=3,"DeepSkyBlue")))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I67" t="s">
@@ -3749,21 +3963,21 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E68">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
@@ -3791,21 +4005,21 @@
       <c r="D69">
         <v>3</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E69">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Fuchsia</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I69" t="s">
         <v>9</v>
@@ -3833,21 +4047,21 @@
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E70">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
@@ -3875,21 +4089,21 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E71">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Fuchsia</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I71" t="s">
         <v>9</v>
@@ -3917,21 +4131,21 @@
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E72">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I72" t="s">
         <v>11</v>
@@ -3959,20 +4173,20 @@
       <c r="D73">
         <v>2</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E73">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>gold</v>
       </c>
       <c r="I73" t="s">
@@ -4001,20 +4215,20 @@
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E74">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I74" t="s">
@@ -4043,21 +4257,21 @@
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E75">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
@@ -4085,21 +4299,21 @@
       <c r="D76">
         <v>2</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E76">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I76" t="s">
         <v>9</v>
@@ -4127,21 +4341,21 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E77">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Fuchsia</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I77" t="s">
         <v>11</v>
@@ -4169,21 +4383,21 @@
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E78">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I78" t="s">
         <v>9</v>
@@ -4211,21 +4425,21 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E79">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>gold</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I79" t="s">
         <v>9</v>
@@ -4253,20 +4467,20 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E80">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Fuchsia</v>
       </c>
       <c r="I80" t="s">
@@ -4295,20 +4509,20 @@
       <c r="D81">
         <v>3</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E81">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I81" t="s">
@@ -4337,21 +4551,21 @@
       <c r="D82">
         <v>2</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E82">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I82" t="s">
         <v>11</v>
@@ -4379,20 +4593,20 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E83">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Fuchsia</v>
       </c>
       <c r="I83" t="s">
@@ -4421,21 +4635,21 @@
       <c r="D84">
         <v>2</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E84">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I84" t="s">
         <v>11</v>
@@ -4463,21 +4677,21 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E85">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I85" t="s">
         <v>9</v>
@@ -4505,21 +4719,21 @@
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F86" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E86">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I86" t="s">
         <v>11</v>
@@ -4547,21 +4761,21 @@
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F87" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E87">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I87" t="s">
         <v>11</v>
@@ -4589,20 +4803,20 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F88" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E88">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>gold</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Fuchsia</v>
       </c>
       <c r="I88" t="s">
@@ -4631,21 +4845,21 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F89" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E89">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I89" t="s">
         <v>11</v>
@@ -4673,21 +4887,21 @@
       <c r="D90">
         <v>3</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F90" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E90">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I90" t="s">
         <v>9</v>
@@ -4715,20 +4929,20 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E91">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Fuchsia</v>
       </c>
       <c r="I91" t="s">
@@ -4757,20 +4971,20 @@
       <c r="D92">
         <v>3</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E92">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I92" t="s">
@@ -4799,21 +5013,21 @@
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E93">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I93" t="s">
         <v>9</v>
@@ -4841,21 +5055,21 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E94">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>gold</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I94" t="s">
         <v>9</v>
@@ -4883,21 +5097,21 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E95">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>gold</v>
       </c>
       <c r="I95" t="s">
         <v>9</v>
@@ -4925,20 +5139,20 @@
       <c r="D96">
         <v>3</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E96">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I96" t="s">
@@ -4967,21 +5181,21 @@
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E97">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gold</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I97" t="s">
         <v>9</v>
@@ -5009,20 +5223,20 @@
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F98" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E98">
+        <f t="shared" ref="E98:E129" ca="1" si="13">+VLOOKUP(C98,$M$2:$N$4,2,0)</f>
+        <v>90</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ref="F98:F129" ca="1" si="14">+VLOOKUP(D98,$M$2:$N$4,2,0)</f>
+        <v>90</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ref="G98:G129" ca="1" si="15">+VLOOKUP(A98,$S$2:$T$4,2,0)</f>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H98:H129" ca="1" si="16">+VLOOKUP(B98,$S$2:$T$4,2,0)</f>
         <v>gold</v>
       </c>
       <c r="I98" t="s">
@@ -5051,21 +5265,21 @@
       <c r="D99">
         <v>3</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F99" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E99">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I99" t="s">
         <v>9</v>
@@ -5093,21 +5307,21 @@
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F100" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E100">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gold</v>
       </c>
       <c r="I100" t="s">
         <v>9</v>
@@ -5135,20 +5349,20 @@
       <c r="D101">
         <v>3</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F101" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E101">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I101" t="s">
@@ -5177,20 +5391,20 @@
       <c r="D102">
         <v>3</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F102" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E102">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>gold</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I102" t="s">
@@ -5219,21 +5433,21 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F103" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E103">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Fuchsia</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I103" t="s">
         <v>11</v>
@@ -5261,21 +5475,21 @@
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F104" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E104">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I104" t="s">
         <v>9</v>
@@ -5303,21 +5517,21 @@
       <c r="D105">
         <v>2</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F105" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E105">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>gold</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I105" t="s">
         <v>11</v>
@@ -5345,21 +5559,21 @@
       <c r="D106">
         <v>3</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F106" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E106">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>gold</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
@@ -5387,20 +5601,20 @@
       <c r="D107">
         <v>3</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F107" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E107">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I107" t="s">
@@ -5429,21 +5643,21 @@
       <c r="D108">
         <v>2</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F108" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E108">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I108" t="s">
         <v>11</v>
@@ -5471,21 +5685,21 @@
       <c r="D109">
         <v>3</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F109" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E109">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gold</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5513,21 +5727,21 @@
       <c r="D110">
         <v>3</v>
       </c>
-      <c r="E110" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F110" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E110">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gold</v>
       </c>
       <c r="I110" t="s">
         <v>9</v>
@@ -5555,21 +5769,21 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F111" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E111">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I111" t="s">
         <v>9</v>
@@ -5597,21 +5811,21 @@
       <c r="D112">
         <v>3</v>
       </c>
-      <c r="E112" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F112" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E112">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="7"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I112" t="s">
         <v>9</v>
@@ -5639,20 +5853,20 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F113" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E113">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I113" t="s">
@@ -5681,20 +5895,20 @@
       <c r="D114">
         <v>3</v>
       </c>
-      <c r="E114" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F114" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E114">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I114" t="s">
@@ -5723,21 +5937,21 @@
       <c r="D115">
         <v>2</v>
       </c>
-      <c r="E115" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F115" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E115">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I115" t="s">
         <v>9</v>
@@ -5765,20 +5979,20 @@
       <c r="D116">
         <v>3</v>
       </c>
-      <c r="E116" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F116" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_high</v>
+      <c r="E116">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I116" t="s">
@@ -5807,20 +6021,20 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F117" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E117">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I117" t="s">
@@ -5849,20 +6063,20 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F118" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E118">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>gold</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I118" t="s">
@@ -5891,20 +6105,20 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F119" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E119">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I119" t="s">
@@ -5933,20 +6147,20 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F120" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E120">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I120" t="s">
@@ -5975,21 +6189,21 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F121" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E121">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I121" t="s">
         <v>11</v>
@@ -6017,21 +6231,21 @@
       <c r="D122">
         <v>2</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F122" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E122">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I122" t="s">
         <v>9</v>
@@ -6059,21 +6273,21 @@
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F123" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_med</v>
+      <c r="E123">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="6"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="7"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I123" t="s">
         <v>11</v>
@@ -6101,20 +6315,20 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F124" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E124">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I124" t="s">
@@ -6143,21 +6357,21 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F125" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E125">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I125" t="s">
         <v>9</v>
@@ -6185,20 +6399,20 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F126" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E126">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I126" t="s">
@@ -6227,20 +6441,20 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F127" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E127">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="6"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>gold</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I127" t="s">
@@ -6269,20 +6483,20 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F128" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E128">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Fuchsia</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Fuchsia</v>
       </c>
       <c r="I128" t="s">
@@ -6311,21 +6525,21 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F129" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E129">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="6"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gold</v>
       </c>
       <c r="I129" t="s">
         <v>11</v>
@@ -6353,21 +6567,21 @@
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="4"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F130" t="str">
-        <f t="shared" si="5"/>
-        <v>$n_edges_low</v>
+      <c r="E130">
+        <f t="shared" ref="E130:E163" ca="1" si="17">+VLOOKUP(C130,$M$2:$N$4,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:F163" ca="1" si="18">+VLOOKUP(D130,$M$2:$N$4,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G130:G163" ca="1" si="19">+VLOOKUP(A130,$S$2:$T$4,2,0)</f>
         <v>Fuchsia</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="7"/>
-        <v>Fuchsia</v>
+        <f t="shared" ref="H130:H163" ca="1" si="20">+VLOOKUP(B130,$S$2:$T$4,2,0)</f>
+        <v>gold</v>
       </c>
       <c r="I130" t="s">
         <v>9</v>
@@ -6395,21 +6609,21 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E163" si="8">+IF(C131=1,"$n_edges_low",IF(C131=2,"$n_edges_med",IF(C131=3,"$n_edges_high")))</f>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F131" t="str">
-        <f t="shared" ref="F131:F163" si="9">+IF(D131=1,"$n_edges_low",IF(D131=2,"$n_edges_med",IF(D131=3,"$n_edges_high")))</f>
-        <v>$n_edges_low</v>
+      <c r="E131">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G163" si="10">+IF(C131=1,"Fuchsia",IF(C131=2,"gold",IF(C131=3,"DeepSkyBlue")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>gold</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H163" si="11">+IF(D131=1,"Fuchsia",IF(D131=2,"gold",IF(D131=3,"DeepSkyBlue")))</f>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I131" t="s">
         <v>9</v>
@@ -6437,20 +6651,20 @@
       <c r="D132">
         <v>2</v>
       </c>
-      <c r="E132" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F132" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E132">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I132" t="s">
@@ -6479,20 +6693,20 @@
       <c r="D133">
         <v>2</v>
       </c>
-      <c r="E133" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F133" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E133">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>gold</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I133" t="s">
@@ -6521,20 +6735,20 @@
       <c r="D134">
         <v>2</v>
       </c>
-      <c r="E134" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F134" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E134">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="10"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I134" t="s">
@@ -6563,21 +6777,21 @@
       <c r="D135">
         <v>2</v>
       </c>
-      <c r="E135" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F135" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E135">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>Fuchsia</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="11"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I135" t="s">
         <v>9</v>
@@ -6605,21 +6819,21 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F136" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E136">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="11"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I136" t="s">
         <v>9</v>
@@ -6647,20 +6861,20 @@
       <c r="D137">
         <v>3</v>
       </c>
-      <c r="E137" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F137" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E137">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>gold</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I137" t="s">
@@ -6689,21 +6903,21 @@
       <c r="D138">
         <v>3</v>
       </c>
-      <c r="E138" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F138" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E138">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="11"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I138" t="s">
         <v>11</v>
@@ -6731,21 +6945,21 @@
       <c r="D139">
         <v>2</v>
       </c>
-      <c r="E139" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F139" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E139">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="11"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I139" t="s">
         <v>11</v>
@@ -6773,21 +6987,21 @@
       <c r="D140">
         <v>3</v>
       </c>
-      <c r="E140" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F140" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E140">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="11"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I140" t="s">
         <v>11</v>
@@ -6815,21 +7029,21 @@
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="E141" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F141" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E141">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>gold</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="11"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I141" t="s">
         <v>11</v>
@@ -6857,20 +7071,20 @@
       <c r="D142">
         <v>3</v>
       </c>
-      <c r="E142" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F142" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E142">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I142" t="s">
@@ -6899,21 +7113,21 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="E143" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F143" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E143">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="11"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I143" t="s">
         <v>11</v>
@@ -6941,20 +7155,20 @@
       <c r="D144">
         <v>3</v>
       </c>
-      <c r="E144" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F144" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E144">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I144" t="s">
@@ -6983,21 +7197,21 @@
       <c r="D145">
         <v>2</v>
       </c>
-      <c r="E145" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F145" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E145">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="11"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I145" t="s">
         <v>9</v>
@@ -7025,21 +7239,21 @@
       <c r="D146">
         <v>3</v>
       </c>
-      <c r="E146" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F146" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E146">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>gold</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="11"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>gold</v>
       </c>
       <c r="I146" t="s">
         <v>11</v>
@@ -7067,20 +7281,20 @@
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="E147" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F147" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E147">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I147" t="s">
@@ -7109,20 +7323,20 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F148" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E148">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>Fuchsia</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>Fuchsia</v>
       </c>
       <c r="I148" t="s">
@@ -7151,21 +7365,21 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F149" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E149">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="10"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="11"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I149" t="s">
         <v>9</v>
@@ -7193,20 +7407,20 @@
       <c r="D150">
         <v>2</v>
       </c>
-      <c r="E150" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F150" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E150">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I150" t="s">
@@ -7235,20 +7449,20 @@
       <c r="D151">
         <v>2</v>
       </c>
-      <c r="E151" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F151" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E151">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="10"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I151" t="s">
@@ -7277,20 +7491,20 @@
       <c r="D152">
         <v>3</v>
       </c>
-      <c r="E152" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F152" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E152">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="I152" t="s">
@@ -7319,21 +7533,21 @@
       <c r="D153">
         <v>3</v>
       </c>
-      <c r="E153" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F153" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E153">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="11"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I153" t="s">
         <v>11</v>
@@ -7361,21 +7575,21 @@
       <c r="D154">
         <v>3</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F154" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E154">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="10"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="11"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I154" t="s">
         <v>11</v>
@@ -7403,21 +7617,21 @@
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F155" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E155">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F155">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="11"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I155" t="s">
         <v>11</v>
@@ -7445,21 +7659,21 @@
       <c r="D156">
         <v>1</v>
       </c>
-      <c r="E156" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F156" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E156">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="11"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>gold</v>
       </c>
       <c r="I156" t="s">
         <v>11</v>
@@ -7487,21 +7701,21 @@
       <c r="D157">
         <v>2</v>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F157" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E157">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F157">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="11"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>Fuchsia</v>
       </c>
       <c r="I157" t="s">
         <v>9</v>
@@ -7529,20 +7743,20 @@
       <c r="D158">
         <v>2</v>
       </c>
-      <c r="E158" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F158" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E158">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DeepSkyBlue</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I158" t="s">
@@ -7571,21 +7785,21 @@
       <c r="D159">
         <v>1</v>
       </c>
-      <c r="E159" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_med</v>
-      </c>
-      <c r="F159" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_low</v>
+      <c r="E159">
+        <f t="shared" ca="1" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="F159">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="10"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="11"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>gold</v>
       </c>
       <c r="I159" t="s">
         <v>9</v>
@@ -7613,21 +7827,21 @@
       <c r="D160">
         <v>3</v>
       </c>
-      <c r="E160" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F160" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_high</v>
+      <c r="E160">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>Fuchsia</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="11"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>gold</v>
       </c>
       <c r="I160" t="s">
         <v>11</v>
@@ -7655,20 +7869,20 @@
       <c r="D161">
         <v>2</v>
       </c>
-      <c r="E161" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_high</v>
-      </c>
-      <c r="F161" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E161">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="10"/>
-        <v>DeepSkyBlue</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Fuchsia</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I161" t="s">
@@ -7697,20 +7911,20 @@
       <c r="D162">
         <v>2</v>
       </c>
-      <c r="E162" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F162" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E162">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>Fuchsia</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>gold</v>
       </c>
       <c r="I162" t="s">
@@ -7739,21 +7953,21 @@
       <c r="D163">
         <v>2</v>
       </c>
-      <c r="E163" t="str">
-        <f t="shared" si="8"/>
-        <v>$n_edges_low</v>
-      </c>
-      <c r="F163" t="str">
-        <f t="shared" si="9"/>
-        <v>$n_edges_med</v>
+      <c r="E163">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="10"/>
-        <v>Fuchsia</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>gold</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="11"/>
-        <v>gold</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>DeepSkyBlue</v>
       </c>
       <c r="I163" t="s">
         <v>9</v>
@@ -7769,6 +7983,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L163" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>